--- a/excel/excel-training/Level 2/Excel Tables.xlsx
+++ b/excel/excel-training/Level 2/Excel Tables.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11008"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jonac\Dropbox\Excel Campus\Courses\Lookups\Course Files\Module 5 - Excel Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sai_akella/Desktop/PSSM/GITHUB/data-science/excel/excel-training/Level 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A38337-3055-0743-A939-DB98D64EC644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19190" windowHeight="7580"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TOC" sheetId="10" r:id="rId1"/>
@@ -23,17 +24,27 @@
     <sheet name="MATCH Tables" sheetId="8" r:id="rId9"/>
     <sheet name="INDEX MATCH Tables" sheetId="9" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="61">
   <si>
     <t>Emp ID</t>
   </si>
@@ -221,7 +232,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -511,12 +522,12 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="2" applyBorder="1"/>
@@ -525,27 +536,22 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="4" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="2" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="2" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="2" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -555,14 +561,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -573,51 +573,25 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Comma [0] 2" xfId="3"/>
+    <cellStyle name="Comma [0] 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
-  <dxfs count="71">
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
+  <dxfs count="75">
     <dxf>
       <font>
         <strike val="0"/>
@@ -631,137 +605,6 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -835,33 +678,250 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
       <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
     </dxf>
     <dxf>
       <font>
@@ -1593,7 +1653,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1637,7 +1703,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1686,7 +1758,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0900-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1728,39 +1806,55 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="tblExample" displayName="tblExample" ref="B3:D11" totalsRowShown="0" headerRowDxfId="70" dataDxfId="69">
-  <autoFilter ref="B3:D11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="tblExample" displayName="tblExample" ref="B3:D11" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73">
+  <autoFilter ref="B3:D11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Emp ID" dataDxfId="68"/>
-    <tableColumn id="2" name="Name" dataDxfId="67"/>
-    <tableColumn id="3" name="Sales" dataDxfId="66"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Emp ID" dataDxfId="72"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataDxfId="71"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Sales" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF08000000}" name="tblDiscount" displayName="tblDiscount" ref="A3:E8" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A3:E8" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0800-000001000000}" name="Emp ID" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0800-000002000000}" name="Name" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0800-000003000000}" name="Region" dataDxfId="8">
+      <calculatedColumnFormula>VLOOKUP(tblDiscount[[#This Row],[Name]],tblRegion[],2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0800-000004000000}" name="Retail Price" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0800-000005000000}" name="Discount" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="tblExample2" displayName="tblExample2" ref="B13:D16" totalsRowShown="0" headerRowDxfId="65" headerRowCellStyle="Normal 2">
-  <autoFilter ref="B13:D16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="tblExample2" displayName="tblExample2" ref="B13:D16" totalsRowShown="0" headerRowDxfId="69" headerRowCellStyle="Normal 2">
+  <autoFilter ref="B13:D16" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Emp ID" dataDxfId="64" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" name="Name" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" name="Sales" dataDxfId="63" dataCellStyle="Comma"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Emp ID" dataDxfId="68" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Name" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Sales" dataDxfId="67" dataCellStyle="Comma"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="tblSales" displayName="tblSales" ref="A3:F8" totalsRowCount="1" headerRowDxfId="62" dataDxfId="61" totalsRowDxfId="60">
-  <autoFilter ref="A3:F7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="tblSales" displayName="tblSales" ref="A3:F8" totalsRowCount="1" headerRowDxfId="66" dataDxfId="65" totalsRowDxfId="64">
+  <autoFilter ref="A3:F7" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Emp ID" totalsRowLabel="Total" dataDxfId="59" totalsRowDxfId="58"/>
-    <tableColumn id="2" name="Name" dataDxfId="57" totalsRowDxfId="56" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" name="Region" dataDxfId="55" totalsRowDxfId="54" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" name="Retail Price" totalsRowFunction="sum" dataDxfId="53" totalsRowDxfId="52"/>
-    <tableColumn id="5" name="Discount" totalsRowFunction="sum" dataDxfId="51" totalsRowDxfId="50"/>
-    <tableColumn id="6" name="Net Price" totalsRowFunction="sum" dataDxfId="49" totalsRowDxfId="48" dataCellStyle="Comma">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Emp ID" totalsRowLabel="Total" dataDxfId="63" totalsRowDxfId="62"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Name" dataDxfId="61" totalsRowDxfId="60" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Region" dataDxfId="59" totalsRowDxfId="58" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Retail Price" totalsRowFunction="sum" dataDxfId="57" totalsRowDxfId="56"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Discount" totalsRowFunction="sum" dataDxfId="55" totalsRowDxfId="54"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Net Price" totalsRowFunction="sum" dataDxfId="53" totalsRowDxfId="52" dataCellStyle="Comma">
       <calculatedColumnFormula>tblSales[[#This Row],[Retail Price]]-tblSales[[#This Row],[Discount]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1769,15 +1863,15 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="tblSales6" displayName="tblSales6" ref="A3:F7" headerRowDxfId="47" dataDxfId="46" totalsRowDxfId="45">
-  <autoFilter ref="A3:F7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="tblSales6" displayName="tblSales6" ref="A3:F7" headerRowDxfId="51" dataDxfId="50" totalsRowDxfId="49">
+  <autoFilter ref="A3:F7" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Emp ID" totalsRowLabel="Total" dataDxfId="44"/>
-    <tableColumn id="2" name="Name" dataDxfId="43" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" name="Region" dataDxfId="42" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" name="Retail Price" totalsRowFunction="sum" dataDxfId="41" totalsRowDxfId="40"/>
-    <tableColumn id="5" name="Discount" totalsRowFunction="sum" dataDxfId="39" totalsRowDxfId="38"/>
-    <tableColumn id="6" name="Net Price" dataDxfId="37" totalsRowDxfId="36" dataCellStyle="Comma">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Emp ID" totalsRowLabel="Total" dataDxfId="48"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Name" dataDxfId="47" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Region" dataDxfId="46" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="Retail Price" totalsRowFunction="sum" dataDxfId="45" totalsRowDxfId="44"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="Discount" totalsRowFunction="sum" dataDxfId="43" totalsRowDxfId="42"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="Net Price" dataDxfId="41" totalsRowDxfId="40" dataCellStyle="Comma">
       <calculatedColumnFormula>tblSales6[[#This Row],[Retail Price]]-tblSales6[[#This Row],[Discount]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1786,15 +1880,15 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="tblPrice" displayName="tblPrice" ref="A3:F7" headerRowDxfId="35" dataDxfId="34" totalsRowDxfId="33">
-  <autoFilter ref="A3:F7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="tblPrice" displayName="tblPrice" ref="A3:F7" headerRowDxfId="39" dataDxfId="38" totalsRowDxfId="37">
+  <autoFilter ref="A3:F7" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="Emp ID" totalsRowLabel="Total" dataDxfId="32"/>
-    <tableColumn id="2" name="Name" dataDxfId="31" dataCellStyle="Normal 2"/>
-    <tableColumn id="3" name="Region" dataDxfId="30" dataCellStyle="Normal 2"/>
-    <tableColumn id="4" name="Retail Price" totalsRowFunction="sum" dataDxfId="29" totalsRowDxfId="28"/>
-    <tableColumn id="5" name="Discount" totalsRowFunction="sum" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="6" name="Net Price" dataDxfId="25" totalsRowDxfId="24" dataCellStyle="Comma">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Emp ID" totalsRowLabel="Total" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Name" dataDxfId="35" dataCellStyle="Normal 2"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Region" dataDxfId="34" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0400-000004000000}" name="Retail Price" totalsRowFunction="sum" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0400-000005000000}" name="Discount" totalsRowFunction="sum" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0400-000006000000}" name="Net Price" dataDxfId="29" totalsRowDxfId="28" dataCellStyle="Comma">
       <calculatedColumnFormula>tblPrice[[#This Row],[Retail Price]]-tblPrice[[#This Row],[Discount]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1803,60 +1897,55 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table6" displayName="Table6" ref="A3:E11" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
-  <autoFilter ref="A3:E11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table6" displayName="Table6" ref="A3:E11" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="A3:E11" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Emp ID" dataDxfId="21"/>
-    <tableColumn id="2" name="Name" dataDxfId="20"/>
-    <tableColumn id="3" name="Region" dataDxfId="19">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Emp ID" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Name" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Region" dataDxfId="5">
       <calculatedColumnFormula>VLOOKUP(Table6[[#This Row],[Name]],tblRegion[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Retail Price" dataDxfId="18"/>
-    <tableColumn id="5" name="Discount" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Retail Price" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="Discount" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="tblRegion" displayName="tblRegion" ref="A1:B9" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
-  <autoFilter ref="A1:B9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="tblRegion" displayName="tblRegion" ref="A1:B9" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="A1:B9" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" name="Employee" dataDxfId="14"/>
-    <tableColumn id="2" name="Region" dataDxfId="13" dataCellStyle="Normal 2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Employee" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Region" dataDxfId="18" dataCellStyle="Normal 2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="tblEmployee" displayName="tblEmployee" ref="A4:D10" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A4:D10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="tblEmployee" displayName="tblEmployee" ref="A4:D10" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A4:D10" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Emp ID" dataDxfId="10"/>
-    <tableColumn id="2" name="Name" dataDxfId="9"/>
-    <tableColumn id="3" name="Region" dataDxfId="8">
-      <calculatedColumnFormula>VLOOKUP(tblEmployee[[#This Row],[Name]],tblRegion[],$C$3,FALSE)</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Emp ID" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Name" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Region" dataDxfId="0">
+      <calculatedColumnFormula>VLOOKUP(tblEmployee[[#This Row],[Name]],tblRegion1[],$C$3,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" name="Retail Price" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0700-000004000000}" name="Retail Price" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="tblDiscount" displayName="tblDiscount" ref="A3:E8" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A3:E8"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Emp ID" dataDxfId="4"/>
-    <tableColumn id="2" name="Name" dataDxfId="3"/>
-    <tableColumn id="3" name="Region" dataDxfId="2">
-      <calculatedColumnFormula>VLOOKUP(tblDiscount[[#This Row],[Name]],tblRegion[],2,FALSE)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" name="Retail Price" dataDxfId="1"/>
-    <tableColumn id="5" name="Discount" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{9D4EC996-D916-114A-BE1B-E947D00A8286}" name="tblRegion1" displayName="tblRegion1" ref="F4:G12" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="F4:G12" xr:uid="{9D4EC996-D916-114A-BE1B-E947D00A8286}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{31AC3E66-E37B-F349-9447-DC14D2971067}" name="Employee" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{4E50A332-DE9D-504B-96D0-8C7F672CEA3B}" name="Region" dataDxfId="1" dataCellStyle="Normal 2"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2122,289 +2211,287 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.09765625" customWidth="1"/>
-    <col min="2" max="2" width="4.09765625" style="38" customWidth="1"/>
-    <col min="3" max="3" width="25.296875" style="39" customWidth="1"/>
-    <col min="4" max="4" width="15.69921875" customWidth="1"/>
+    <col min="1" max="2" width="4" customWidth="1"/>
+    <col min="3" max="3" width="25.19921875" style="32" customWidth="1"/>
+    <col min="4" max="4" width="15.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="41" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B1" s="42" t="s">
+    <row r="1" spans="1:11" s="34" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B2"/>
-    </row>
-    <row r="3" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B3" s="37" t="s">
+    </row>
+    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="B3" s="31" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B4" s="45">
+    <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="B4" s="38">
         <v>1</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="39" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B5" s="45">
+    <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="B5" s="38">
         <v>2</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="39" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B6" s="45">
+    <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="B6" s="38">
         <v>3</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="39" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="45">
+    <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="B7" s="38">
         <v>4</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="39" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B8" s="45">
+    <row r="8" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="B8" s="38">
         <v>5</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="39" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B9" s="45">
+    <row r="9" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="B9" s="38">
         <v>6</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="39" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B10" s="45">
+    <row r="10" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="B10" s="38">
         <v>7</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="39" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B11" s="45">
+    <row r="11" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="B11" s="38">
         <v>8</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="39" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="B12" s="45">
+    <row r="12" spans="1:11" ht="15" x14ac:dyDescent="0.2">
+      <c r="B12" s="38">
         <v>9</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="39" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C13" s="44"/>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C17" s="47" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="C13" s="37"/>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" s="40" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C18" s="47" t="s">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C18" s="40" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C19" s="48" t="s">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19" s="41" t="s">
         <v>60</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="'Excel Tables Pros Cons'!A1" display="'Excel Tables Pros Cons'!A1"/>
-    <hyperlink ref="C5" location="'Getting Started with Tables'!A1" display="'Getting Started with Tables'!A1"/>
-    <hyperlink ref="C6" location="'Table Formulas vs Standard'!A1" display="'Table Formulas vs Standard'!A1"/>
-    <hyperlink ref="C7" location="'Formulas On Other Sheets'!A1" display="'Formulas On Other Sheets'!A1"/>
-    <hyperlink ref="C8" location="'Table Formula Tips'!A1" display="'Table Formula Tips'!A1"/>
-    <hyperlink ref="C9" location="'VLOOKUP Tables'!A1" display="'VLOOKUP Tables'!A1"/>
-    <hyperlink ref="C10" location="'Regions'!A1" display="'Regions'!A1"/>
-    <hyperlink ref="C11" location="'MATCH Tables'!A1" display="'MATCH Tables'!A1"/>
-    <hyperlink ref="C12" location="'INDEX MATCH Tables'!A1" display="'INDEX MATCH Tables'!A1"/>
-    <hyperlink ref="F1:I1" r:id="rId1" display="The VBA Pro Course from Excel Campus"/>
-    <hyperlink ref="F1:K1" r:id="rId2" display="The Ultimate Lookup Formulas Course | Excel Campus"/>
-    <hyperlink ref="C19" r:id="rId3"/>
+    <hyperlink ref="C4" location="'Excel Tables Pros Cons'!A1" display="'Excel Tables Pros Cons'!A1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C5" location="'Getting Started with Tables'!A1" display="'Getting Started with Tables'!A1" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C6" location="'Table Formulas vs Standard'!A1" display="'Table Formulas vs Standard'!A1" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C7" location="'Formulas On Other Sheets'!A1" display="'Formulas On Other Sheets'!A1" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C8" location="'Table Formula Tips'!A1" display="'Table Formula Tips'!A1" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C9" location="'VLOOKUP Tables'!A1" display="'VLOOKUP Tables'!A1" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C10" location="'Regions'!A1" display="'Regions'!A1" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C11" location="'MATCH Tables'!A1" display="'MATCH Tables'!A1" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="C12" location="'INDEX MATCH Tables'!A1" display="'INDEX MATCH Tables'!A1" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="F1:I1" r:id="rId1" display="The VBA Pro Course from Excel Campus" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="F1:K1" r:id="rId2" display="The Ultimate Lookup Formulas Course | Excel Campus" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="C19" r:id="rId3" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.69921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.296875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.09765625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.8984375" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9.09765625" style="3"/>
+    <col min="2" max="2" width="19.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.19921875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.796875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="44" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="37" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="12">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="11">
         <v>10001</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="11" t="str">
+      <c r="C4" s="3" t="str">
         <f>VLOOKUP(tblDiscount[[#This Row],[Name]],tblRegion[],2,FALSE)</f>
         <v>East</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <v>100000</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <v>25000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="12">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="11">
         <v>10002</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="11" t="str">
+      <c r="C5" s="3" t="str">
         <f>VLOOKUP(tblDiscount[[#This Row],[Name]],tblRegion[],2,FALSE)</f>
         <v>East</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="12">
         <v>150000</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <v>30000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="12">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="11">
         <v>10003</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="11" t="str">
+      <c r="C6" s="3" t="str">
         <f>VLOOKUP(tblDiscount[[#This Row],[Name]],tblRegion[],2,FALSE)</f>
         <v>East</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="12">
         <v>200000</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="12">
         <v>35000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="12">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="11">
         <v>10004</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="11" t="str">
+      <c r="C7" s="3" t="str">
         <f>VLOOKUP(tblDiscount[[#This Row],[Name]],tblRegion[],2,FALSE)</f>
         <v>East</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="12">
         <v>250000</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="12">
         <v>40000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="12">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="11">
         <v>10005</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="11" t="str">
+      <c r="C8" s="3" t="str">
         <f>VLOOKUP(tblDiscount[[#This Row],[Name]],tblRegion[],2,FALSE)</f>
         <v>West</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="12">
         <v>300000</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="12">
         <v>45000</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>41</v>
       </c>
@@ -2412,19 +2499,19 @@
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="13" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="36">
+      <c r="B13" s="30">
         <f>INDEX(tblDiscount[Discount],MATCH(A13,tblDiscount[Name],0))</f>
         <v>40000</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" location="'TOC'!A1" display="'TOC'!A1"/>
+    <hyperlink ref="A2" location="'TOC'!A1" display="'TOC'!A1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2435,7 +2522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:T35"/>
   <sheetViews>
@@ -2443,746 +2530,746 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.69921875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="2.59765625" style="3" customWidth="1"/>
     <col min="2" max="2" width="9.3984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.69921875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.59765625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.3984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.09765625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="5.69921875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="9.09765625" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9.09765625" style="3"/>
+    <col min="5" max="5" width="7" style="3" customWidth="1"/>
+    <col min="6" max="6" width="5.59765625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="9" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="A2" s="44" t="s">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="A2" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-    </row>
-    <row r="3" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B3" s="11" t="s">
+      <c r="F2" s="15"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="16"/>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+    </row>
+    <row r="3" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="20" t="s">
+      <c r="F3" s="17"/>
+      <c r="G3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
-      <c r="O3" s="21"/>
-      <c r="P3" s="21"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="T3" s="21"/>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B4" s="12">
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="19"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B4" s="11">
         <v>10001</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <v>100000</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="22" t="s">
+      <c r="F4" s="17"/>
+      <c r="G4" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="21"/>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="21"/>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B5" s="12">
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="19"/>
+      <c r="P4" s="19"/>
+      <c r="Q4" s="19"/>
+      <c r="R4" s="19"/>
+      <c r="S4" s="19"/>
+      <c r="T4" s="19"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B5" s="11">
         <v>10002</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="12">
         <v>150000</v>
       </c>
-      <c r="F5" s="19"/>
-      <c r="G5" s="22" t="s">
+      <c r="F5" s="17"/>
+      <c r="G5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-      <c r="K5" s="21"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="21"/>
-      <c r="N5" s="21"/>
-      <c r="O5" s="21"/>
-      <c r="P5" s="21"/>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B6" s="12">
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="19"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B6" s="11">
         <v>10003</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="12">
         <v>200000</v>
       </c>
-      <c r="F6" s="19"/>
-      <c r="G6" s="22" t="s">
+      <c r="F6" s="17"/>
+      <c r="G6" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="21"/>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B7" s="12">
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="19"/>
+      <c r="O6" s="19"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="19"/>
+      <c r="S6" s="19"/>
+      <c r="T6" s="19"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B7" s="11">
         <v>10004</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="12">
         <v>250000</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="22" t="s">
+      <c r="F7" s="17"/>
+      <c r="G7" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
-      <c r="O7" s="21"/>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="21"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B8" s="12">
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="19"/>
+      <c r="N7" s="19"/>
+      <c r="O7" s="19"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="19"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B8" s="11">
         <v>10005</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="12">
         <v>300000</v>
       </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="22" t="s">
+      <c r="F8" s="17"/>
+      <c r="G8" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="21"/>
-      <c r="T8" s="21"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B9" s="12">
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="19"/>
+      <c r="O8" s="19"/>
+      <c r="P8" s="19"/>
+      <c r="Q8" s="19"/>
+      <c r="R8" s="19"/>
+      <c r="S8" s="19"/>
+      <c r="T8" s="19"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B9" s="11">
         <v>10006</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="12">
         <v>350000</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="22" t="s">
+      <c r="F9" s="17"/>
+      <c r="G9" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="21"/>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B10" s="12">
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B10" s="11">
         <v>10007</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="12">
         <v>400000</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="22" t="s">
+      <c r="F10" s="17"/>
+      <c r="G10" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="21"/>
-      <c r="T10" s="21"/>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B11" s="12">
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B11" s="11">
         <v>10008</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="12">
         <v>450000</v>
       </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
-      <c r="O11" s="21"/>
-      <c r="P11" s="21"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-    </row>
-    <row r="12" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="F12" s="19"/>
-      <c r="G12" s="23" t="s">
+      <c r="F11" s="17"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+    </row>
+    <row r="12" spans="1:20" ht="16" x14ac:dyDescent="0.2">
+      <c r="F12" s="17"/>
+      <c r="G12" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
-      <c r="O12" s="21"/>
-      <c r="P12" s="21"/>
-      <c r="Q12" s="21"/>
-      <c r="R12" s="21"/>
-      <c r="S12" s="21"/>
-      <c r="T12" s="21"/>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B13" s="14" t="s">
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B13" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="22" t="s">
+      <c r="F13" s="17"/>
+      <c r="G13" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
-      <c r="O13" s="21"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B14" s="16">
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B14" s="11">
         <v>10001</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D14" s="14">
         <v>100000</v>
       </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="22" t="s">
+      <c r="F14" s="17"/>
+      <c r="G14" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="21"/>
-      <c r="P14" s="21"/>
-      <c r="Q14" s="21"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="21"/>
-      <c r="T14" s="21"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B15" s="16">
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B15" s="11">
         <v>10002</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="15">
+      <c r="D15" s="14">
         <v>150000</v>
       </c>
-      <c r="F15" s="19"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
-      <c r="O15" s="21"/>
-      <c r="P15" s="21"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
-      <c r="B16" s="16">
+      <c r="F15" s="17"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="B16" s="11">
         <v>10003</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="14">
         <v>200000</v>
       </c>
-      <c r="F16" s="19"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-    </row>
-    <row r="17" spans="6:20" x14ac:dyDescent="0.35">
-      <c r="F17" s="19"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
-      <c r="O17" s="21"/>
-      <c r="P17" s="21"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21"/>
-    </row>
-    <row r="18" spans="6:20" x14ac:dyDescent="0.35">
-      <c r="F18" s="19"/>
-      <c r="G18" s="21"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
-      <c r="O18" s="21"/>
-      <c r="P18" s="21"/>
-      <c r="Q18" s="21"/>
-      <c r="R18" s="21"/>
-      <c r="S18" s="21"/>
-      <c r="T18" s="21"/>
-    </row>
-    <row r="19" spans="6:20" x14ac:dyDescent="0.35">
-      <c r="F19" s="19"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
-      <c r="O19" s="21"/>
-      <c r="P19" s="21"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="21"/>
-      <c r="T19" s="21"/>
-    </row>
-    <row r="20" spans="6:20" x14ac:dyDescent="0.35">
-      <c r="F20" s="19"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
-      <c r="O20" s="21"/>
-      <c r="P20" s="21"/>
-      <c r="Q20" s="21"/>
-      <c r="R20" s="21"/>
-      <c r="S20" s="21"/>
-      <c r="T20" s="21"/>
-    </row>
-    <row r="21" spans="6:20" x14ac:dyDescent="0.35">
-      <c r="F21" s="19"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
-      <c r="O21" s="21"/>
-      <c r="P21" s="21"/>
-      <c r="Q21" s="21"/>
-      <c r="R21" s="21"/>
-      <c r="S21" s="21"/>
-      <c r="T21" s="21"/>
-    </row>
-    <row r="22" spans="6:20" x14ac:dyDescent="0.35">
-      <c r="F22" s="19"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="21"/>
-      <c r="T22" s="21"/>
-    </row>
-    <row r="23" spans="6:20" x14ac:dyDescent="0.35">
-      <c r="F23" s="19"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
-      <c r="O23" s="21"/>
-      <c r="P23" s="21"/>
-      <c r="Q23" s="21"/>
-      <c r="R23" s="21"/>
-      <c r="S23" s="21"/>
-      <c r="T23" s="21"/>
-    </row>
-    <row r="24" spans="6:20" x14ac:dyDescent="0.35">
-      <c r="F24" s="19"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="21"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="21"/>
-      <c r="T24" s="21"/>
-    </row>
-    <row r="25" spans="6:20" x14ac:dyDescent="0.35">
-      <c r="F25" s="19"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="21"/>
-      <c r="P25" s="21"/>
-      <c r="Q25" s="21"/>
-      <c r="R25" s="21"/>
-      <c r="S25" s="21"/>
-      <c r="T25" s="21"/>
-    </row>
-    <row r="26" spans="6:20" x14ac:dyDescent="0.35">
-      <c r="F26" s="19"/>
-      <c r="G26" s="21"/>
-      <c r="H26" s="21"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
-      <c r="O26" s="21"/>
-      <c r="P26" s="21"/>
-      <c r="Q26" s="21"/>
-      <c r="R26" s="21"/>
-      <c r="S26" s="21"/>
-      <c r="T26" s="21"/>
-    </row>
-    <row r="27" spans="6:20" x14ac:dyDescent="0.35">
-      <c r="F27" s="19"/>
-      <c r="G27" s="21"/>
-      <c r="H27" s="21"/>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
-      <c r="O27" s="21"/>
-      <c r="P27" s="21"/>
-      <c r="Q27" s="21"/>
-      <c r="R27" s="21"/>
-      <c r="S27" s="21"/>
-      <c r="T27" s="21"/>
-    </row>
-    <row r="28" spans="6:20" x14ac:dyDescent="0.35">
-      <c r="F28" s="19"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="21"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
-      <c r="O28" s="21"/>
-      <c r="P28" s="21"/>
-      <c r="Q28" s="21"/>
-      <c r="R28" s="21"/>
-      <c r="S28" s="21"/>
-      <c r="T28" s="21"/>
-    </row>
-    <row r="29" spans="6:20" x14ac:dyDescent="0.35">
-      <c r="F29" s="19"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
-      <c r="R29" s="21"/>
-      <c r="S29" s="21"/>
-      <c r="T29" s="21"/>
-    </row>
-    <row r="30" spans="6:20" x14ac:dyDescent="0.35">
-      <c r="F30" s="19"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="21"/>
-      <c r="R30" s="21"/>
-      <c r="S30" s="21"/>
-      <c r="T30" s="21"/>
-    </row>
-    <row r="31" spans="6:20" x14ac:dyDescent="0.35">
-      <c r="F31" s="19"/>
-      <c r="G31" s="21"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
-      <c r="R31" s="21"/>
-      <c r="S31" s="21"/>
-      <c r="T31" s="21"/>
-    </row>
-    <row r="32" spans="6:20" x14ac:dyDescent="0.35">
-      <c r="F32" s="19"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
-      <c r="R32" s="21"/>
-      <c r="S32" s="21"/>
-      <c r="T32" s="21"/>
-    </row>
-    <row r="33" spans="6:20" x14ac:dyDescent="0.35">
-      <c r="F33" s="19"/>
-      <c r="G33" s="21"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="21"/>
-      <c r="R33" s="21"/>
-      <c r="S33" s="21"/>
-      <c r="T33" s="21"/>
-    </row>
-    <row r="34" spans="6:20" x14ac:dyDescent="0.35">
-      <c r="F34" s="19"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21"/>
-      <c r="O34" s="21"/>
-      <c r="P34" s="21"/>
-      <c r="Q34" s="21"/>
-      <c r="R34" s="21"/>
-      <c r="S34" s="21"/>
-      <c r="T34" s="21"/>
-    </row>
-    <row r="35" spans="6:20" x14ac:dyDescent="0.35">
-      <c r="F35" s="19"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="21"/>
-      <c r="O35" s="21"/>
-      <c r="P35" s="21"/>
-      <c r="Q35" s="21"/>
-      <c r="R35" s="21"/>
-      <c r="S35" s="21"/>
-      <c r="T35" s="21"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+    </row>
+    <row r="17" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F17" s="17"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="19"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+    </row>
+    <row r="18" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F18" s="17"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+    </row>
+    <row r="19" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F19" s="17"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="19"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+    </row>
+    <row r="20" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F20" s="17"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+    </row>
+    <row r="21" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F21" s="17"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+    </row>
+    <row r="22" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F22" s="17"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+    </row>
+    <row r="23" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F23" s="17"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="19"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+    </row>
+    <row r="24" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F24" s="17"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+    </row>
+    <row r="25" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F25" s="17"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="19"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+    </row>
+    <row r="26" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F26" s="17"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+    </row>
+    <row r="27" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F27" s="17"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+    </row>
+    <row r="28" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F28" s="17"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+    </row>
+    <row r="29" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F29" s="17"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="19"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+    </row>
+    <row r="30" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F30" s="17"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+    </row>
+    <row r="31" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F31" s="17"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+    </row>
+    <row r="32" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F32" s="17"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
+    </row>
+    <row r="33" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F33" s="17"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="19"/>
+    </row>
+    <row r="34" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F34" s="17"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="19"/>
+    </row>
+    <row r="35" spans="6:20" x14ac:dyDescent="0.2">
+      <c r="F35" s="17"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="19"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" location="'TOC'!A1" display="'TOC'!A1"/>
+    <hyperlink ref="A2" location="'TOC'!A1" display="'TOC'!A1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3195,171 +3282,126 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.69921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.69921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.296875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.09765625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.8984375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.19921875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.796875" style="3" customWidth="1"/>
     <col min="6" max="6" width="11.3984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.09765625" style="3"/>
+    <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="44" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25"/>
-      <c r="N2" s="25"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A4" s="12">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="11">
         <v>10001</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <v>100000</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <v>25000</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="14">
         <f>tblSales[[#This Row],[Retail Price]]-tblSales[[#This Row],[Discount]]</f>
         <v>75000</v>
       </c>
-      <c r="G4" s="25"/>
-      <c r="H4" s="25"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="25"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A5" s="12">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="11">
         <v>10002</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="12">
         <v>150000</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <v>30000</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="14">
         <f>tblSales[[#This Row],[Retail Price]]-tblSales[[#This Row],[Discount]]</f>
         <v>120000</v>
       </c>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="25"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A6" s="12">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="11">
         <v>10003</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="12">
         <v>200000</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="12">
         <v>35000</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="14">
         <f>tblSales[[#This Row],[Retail Price]]-tblSales[[#This Row],[Discount]]</f>
         <v>165000</v>
       </c>
-      <c r="G6" s="25"/>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="25"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A7" s="24">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="22">
         <v>10007</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="10">
@@ -3368,225 +3410,33 @@
       <c r="E7" s="10">
         <v>55000</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="26">
         <f>tblSales[[#This Row],[Retail Price]]-tblSales[[#This Row],[Discount]]</f>
         <v>345000</v>
       </c>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
-      <c r="K7" s="25"/>
-      <c r="L7" s="25"/>
-      <c r="M7" s="25"/>
-      <c r="N7" s="25"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A8" s="30" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="32">
+      <c r="B8" s="27"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="29">
         <f>SUBTOTAL(109,tblSales[Retail Price])</f>
         <v>850000</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="29">
         <f>SUBTOTAL(109,tblSales[Discount])</f>
         <v>145000</v>
       </c>
-      <c r="F8" s="32">
+      <c r="F8" s="29">
         <f>SUBTOTAL(109,tblSales[Net Price])</f>
         <v>705000</v>
       </c>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="25"/>
-      <c r="M8" s="25"/>
-      <c r="N8" s="25"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="25"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="25"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="25"/>
-      <c r="M15" s="25"/>
-      <c r="N15" s="25"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A17" s="25"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="25"/>
-      <c r="L17" s="25"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="25"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="25"/>
-      <c r="L19" s="25"/>
-      <c r="M19" s="25"/>
-      <c r="N19" s="25"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" location="'TOC'!A1" display="'TOC'!A1"/>
+    <hyperlink ref="A2" location="'TOC'!A1" display="'TOC'!A1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -3596,7 +3446,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet11"/>
   <dimension ref="A1:F25"/>
   <sheetViews>
@@ -3604,118 +3454,118 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.69921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.69921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.296875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.09765625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.8984375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.19921875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.796875" style="3" customWidth="1"/>
     <col min="6" max="6" width="11.3984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.09765625" style="3"/>
+    <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="44" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="37" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="12">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="11">
         <v>10001</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <v>100000</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <v>25000</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="14">
         <f>tblSales6[[#This Row],[Retail Price]]-tblSales6[[#This Row],[Discount]]</f>
         <v>75000</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="12">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="11">
         <v>10002</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="12">
         <v>150000</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <v>30000</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="14">
         <f>tblSales6[[#This Row],[Retail Price]]-tblSales6[[#This Row],[Discount]]</f>
         <v>120000</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="12">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="11">
         <v>10003</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="12">
         <v>200000</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="12">
         <v>35000</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="14">
         <f>tblSales6[[#This Row],[Retail Price]]-tblSales6[[#This Row],[Discount]]</f>
         <v>165000</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="24">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="22">
         <v>10007</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="10">
@@ -3724,33 +3574,33 @@
       <c r="E7" s="10">
         <v>55000</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="26">
         <f>tblSales6[[#This Row],[Retail Price]]-tblSales6[[#This Row],[Discount]]</f>
         <v>345000</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="26" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="26" t="s">
+      <c r="B10" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="26" t="s">
+      <c r="E10" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="26" t="s">
+      <c r="F10" s="23" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="16">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="11">
         <v>10001</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -3759,19 +3609,19 @@
       <c r="C11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="14">
         <v>100000</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="14">
         <v>25000</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="14">
         <f>D11-E11</f>
         <v>75000</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="16">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="11">
         <v>10002</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -3780,19 +3630,19 @@
       <c r="C12" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="14">
         <v>150000</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="14">
         <v>30000</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="14">
         <f t="shared" ref="F12:F14" si="0">D12-E12</f>
         <v>120000</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="16">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="11">
         <v>10003</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -3801,18 +3651,18 @@
       <c r="C13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="14">
         <v>200000</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="14">
         <v>35000</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="14">
         <f t="shared" si="0"/>
         <v>165000</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>10007</v>
       </c>
@@ -3828,30 +3678,30 @@
       <c r="E14" s="9">
         <v>55000</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="14">
         <f t="shared" si="0"/>
         <v>345000</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E16" s="27" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E16" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="25">
         <f>SUM(F11:F14)</f>
         <v>705000</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="E17" s="27" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="E17" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="14">
         <f>SUM(tblSales6[Net Price])</f>
         <v>705000</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>10007</v>
       </c>
@@ -3868,7 +3718,7 @@
         <v>55000</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -3877,7 +3727,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" location="'TOC'!A1" display="'TOC'!A1"/>
+    <hyperlink ref="A2" location="'TOC'!A1" display="'TOC'!A1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -3887,58 +3737,58 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView showFormulas="1" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.796875" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.3984375" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.09765625" style="30"/>
+    <col min="1" max="1" width="14.796875" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.3984375" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="37" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B3" s="31" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B3" s="28" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="27" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="32">
+      <c r="B4" s="29">
         <f>SUM('Getting Started with Tables'!F8)</f>
         <v>705000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="27" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="14">
         <f>SUM(tblSales[Net Price])</f>
         <v>705000</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" location="'TOC'!A1" display="'TOC'!A1"/>
+    <hyperlink ref="A1" location="'TOC'!A1" display="'TOC'!A1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr codeName="Sheet10"/>
   <dimension ref="A1:G26"/>
   <sheetViews>
@@ -3946,118 +3796,118 @@
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.69921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.69921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.296875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.09765625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.8984375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="9.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.19921875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.796875" style="3" customWidth="1"/>
     <col min="6" max="6" width="11.3984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.09765625" style="3"/>
+    <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="44" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="37" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="12">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="11">
         <v>10001</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <v>100000</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <v>25000</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="14">
         <f>tblPrice[[#This Row],[Retail Price]]-tblPrice[[#This Row],[Discount]]</f>
         <v>75000</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="12">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="11">
         <v>10002</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="12">
         <v>150000</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <v>30000</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="14">
         <f>tblPrice[[#This Row],[Retail Price]]-tblPrice[[#This Row],[Discount]]</f>
         <v>120000</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="12">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="11">
         <v>10003</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="12">
         <v>200000</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="12">
         <v>35000</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="14">
         <f>tblPrice[[#This Row],[Retail Price]]-tblPrice[[#This Row],[Discount]]</f>
         <v>165000</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="24">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="22">
         <v>10007</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="10">
@@ -4066,80 +3916,78 @@
       <c r="E7" s="10">
         <v>55000</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F7" s="26">
         <f>tblPrice[[#This Row],[Retail Price]]-tblPrice[[#This Row],[Discount]]</f>
         <v>345000</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="E10" s="33" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E10" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="3">
         <f>SUM(tblPrice[Net Price])</f>
         <v>705000</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="E11" s="33" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E11" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="3">
         <f>SUM(tblPrice[Net Price])</f>
         <v>705000</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="3">
         <f>SUM(tblExample[Sales])</f>
         <v>2200000</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="E12" s="33" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E12" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="3">
         <f>COUNTA(tblPrice[#All])</f>
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="E13" s="33" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E13" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="3">
         <f>COUNTA(tblPrice[#Headers])</f>
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="E14" s="33" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E14" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="E15" s="33"/>
-    </row>
-    <row r="16" spans="1:7" s="25" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="E16" s="33"/>
-    </row>
-    <row r="17" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="18" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="19" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="20" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="21" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="22" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="23" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="24" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="25" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="26" s="25" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E15" s="24"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E16" s="24"/>
+    </row>
+    <row r="17" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="18" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="19" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="21" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="22" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="23" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="24" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="25" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="26" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" location="'TOC'!A1" display="'TOC'!A1"/>
+    <hyperlink ref="A2" location="'TOC'!A1" display="'TOC'!A1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -4149,196 +3997,196 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView zoomScale="226" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.69921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.296875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.09765625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="10.8984375" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="9.09765625" style="3"/>
+    <col min="2" max="2" width="19.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.19921875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13" style="3" customWidth="1"/>
+    <col min="5" max="5" width="10.796875" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="44" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="37" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="12">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="11">
         <v>10001</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="11" t="str">
+      <c r="C4" s="3" t="str">
         <f>VLOOKUP(Table6[[#This Row],[Name]],tblRegion[],2,FALSE)</f>
         <v>East</v>
       </c>
-      <c r="D4" s="13">
+      <c r="D4" s="12">
         <v>100000</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="12">
         <v>25000</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="12">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="11">
         <v>10002</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="11" t="str">
+      <c r="C5" s="3" t="str">
         <f>VLOOKUP(Table6[[#This Row],[Name]],tblRegion[],2,FALSE)</f>
         <v>East</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="12">
         <v>150000</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="12">
         <v>30000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="12">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="11">
         <v>10003</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="11" t="str">
+      <c r="C6" s="3" t="str">
         <f>VLOOKUP(Table6[[#This Row],[Name]],tblRegion[],2,FALSE)</f>
         <v>East</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="12">
         <v>200000</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="12">
         <v>35000</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="12">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="11">
         <v>10004</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="11" t="str">
+      <c r="C7" s="3" t="str">
         <f>VLOOKUP(Table6[[#This Row],[Name]],tblRegion[],2,FALSE)</f>
         <v>East</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="12">
         <v>250000</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="12">
         <v>40000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="12">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="11">
         <v>10005</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="11" t="str">
+      <c r="C8" s="3" t="str">
         <f>VLOOKUP(Table6[[#This Row],[Name]],tblRegion[],2,FALSE)</f>
         <v>West</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="12">
         <v>300000</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="12">
         <v>45000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="12">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="11">
         <v>10006</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="11" t="str">
+      <c r="C9" s="3" t="str">
         <f>VLOOKUP(Table6[[#This Row],[Name]],tblRegion[],2,FALSE)</f>
         <v>West</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="12">
         <v>350000</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="12">
         <v>50000</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="12">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="11">
         <v>10007</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="11" t="str">
+      <c r="C10" s="3" t="str">
         <f>VLOOKUP(Table6[[#This Row],[Name]],tblRegion[],2,FALSE)</f>
         <v>West</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="12">
         <v>400000</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="12">
         <v>55000</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="12">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="11">
         <v>10008</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C11" s="11" t="str">
+      <c r="C11" s="3" t="str">
         <f>VLOOKUP(Table6[[#This Row],[Name]],tblRegion[],2,FALSE)</f>
         <v>West</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="12">
         <v>450000</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="12">
         <v>60000</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>41</v>
       </c>
@@ -4346,8 +4194,8 @@
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="16" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:5" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>8</v>
       </c>
@@ -4358,7 +4206,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" location="'TOC'!A1" display="'TOC'!A1"/>
+    <hyperlink ref="A2" location="'TOC'!A1" display="'TOC'!A1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
@@ -4368,89 +4216,89 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B9"/>
+    <sheetView zoomScale="200" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" style="30" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.69921875" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.09765625" style="30"/>
+    <col min="1" max="1" width="18" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.59765625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="27" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="35" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="35" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="35" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="35" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="35" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="35" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="35" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="3" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4463,152 +4311,212 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr codeName="Sheet12"/>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.69921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.296875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.09765625" style="3" customWidth="1"/>
-    <col min="5" max="6" width="9.09765625" style="3"/>
-    <col min="7" max="7" width="19.69921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.09765625" style="3"/>
+    <col min="2" max="2" width="19.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.19921875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9" style="3"/>
+    <col min="6" max="6" width="20.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.59765625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="44" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="37" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C3" s="3">
-        <f>MATCH(tblRegion[[#Headers],[Region]],tblRegion[#Headers],0)</f>
+        <f>MATCH(tblEmployee[[#Headers],[Region]],tblRegion1[#Headers],0)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="12">
+      <c r="F4" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="11">
         <v>10001</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="11" t="str">
-        <f>VLOOKUP(tblEmployee[[#This Row],[Name]],tblRegion[],$C$3,FALSE)</f>
+      <c r="C5" s="3" t="str">
+        <f>VLOOKUP(tblEmployee[[#This Row],[Name]],tblRegion1[],$C$3,FALSE)</f>
         <v>East</v>
       </c>
-      <c r="D5" s="13">
+      <c r="D5" s="12">
         <v>100000</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="12">
+      <c r="F5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="11">
         <v>10002</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="11" t="str">
-        <f>VLOOKUP(tblEmployee[[#This Row],[Name]],tblRegion[],$C$3,FALSE)</f>
+      <c r="C6" s="3" t="str">
+        <f>VLOOKUP(tblEmployee[[#This Row],[Name]],tblRegion1[],$C$3,FALSE)</f>
         <v>East</v>
       </c>
-      <c r="D6" s="13">
+      <c r="D6" s="12">
         <v>150000</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="12">
+      <c r="F6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="11">
         <v>10003</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="11" t="str">
-        <f>VLOOKUP(tblEmployee[[#This Row],[Name]],tblRegion[],$C$3,FALSE)</f>
+      <c r="C7" s="3" t="str">
+        <f>VLOOKUP(tblEmployee[[#This Row],[Name]],tblRegion1[],$C$3,FALSE)</f>
         <v>East</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="12">
         <v>200000</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="12">
+      <c r="F7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="11">
         <v>10004</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="11" t="str">
-        <f>VLOOKUP(tblEmployee[[#This Row],[Name]],tblRegion[],$C$3,FALSE)</f>
+      <c r="C8" s="3" t="str">
+        <f>VLOOKUP(tblEmployee[[#This Row],[Name]],tblRegion1[],$C$3,FALSE)</f>
         <v>East</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="12">
         <v>250000</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="12">
+      <c r="F8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="11">
         <v>10005</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="11" t="str">
-        <f>VLOOKUP(tblEmployee[[#This Row],[Name]],tblRegion[],$C$3,FALSE)</f>
+      <c r="C9" s="3" t="str">
+        <f>VLOOKUP(tblEmployee[[#This Row],[Name]],tblRegion1[],$C$3,FALSE)</f>
         <v>West</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="12">
         <v>300000</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="12">
+      <c r="F9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="11">
         <v>10006</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="11" t="str">
-        <f>VLOOKUP(tblEmployee[[#This Row],[Name]],tblRegion[],$C$3,FALSE)</f>
+      <c r="C10" s="3" t="str">
+        <f>VLOOKUP(tblEmployee[[#This Row],[Name]],tblRegion1[],$C$3,FALSE)</f>
         <v>West</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="12">
         <v>350000</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" location="'TOC'!A1" display="'TOC'!A1"/>
+    <hyperlink ref="A2" location="'TOC'!A1" display="'TOC'!A1" xr:uid="{00000000-0004-0000-0800-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>